--- a/실무_엑셀_예제_파일/Chapter06/06-004.xlsx
+++ b/실무_엑셀_예제_파일/Chapter06/06-004.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google 드라이브\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9F063F-FAC4-4AD1-970F-ABBB63CAA23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CDBC7F-DB01-409F-9F91-E630B3880324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0AB4CD3D-78CF-43D9-BA3F-47745F891565}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{0AB4CD3D-78CF-43D9-BA3F-47745F891565}"/>
   </bookViews>
   <sheets>
     <sheet name="추석맞이행사" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">추석맞이행사!$2:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId2"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="56">
   <si>
     <t>아쿠아 필터</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -208,6 +211,39 @@
   <si>
     <t>헬로마트 추석맞이 행사 지점별 매출 요약 (21.09.01~21.09.30)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남지점</t>
+  </si>
+  <si>
+    <t>강동지점</t>
+  </si>
+  <si>
+    <t>강북지점</t>
+  </si>
+  <si>
+    <t>강서지점</t>
+  </si>
+  <si>
+    <t>수원지점</t>
+  </si>
+  <si>
+    <t>판교지점</t>
+  </si>
+  <si>
+    <t>총합계</t>
+  </si>
+  <si>
+    <t>합계 : 수량</t>
+  </si>
+  <si>
+    <t>지점</t>
+  </si>
+  <si>
+    <t>제조사</t>
+  </si>
+  <si>
+    <t>제품명</t>
   </si>
 </sst>
 </file>
@@ -252,7 +288,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +298,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,7 +344,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,20 +366,97 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -348,6 +467,1116 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="황태훈" refreshedDate="45769.201876157407" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="88" xr:uid="{CEF24759-76A2-4CF5-8A96-F2298FB6046F}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B4:I92" sheet="추석맞이행사"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="지점" numFmtId="0">
+      <sharedItems count="6">
+        <s v="강남지점"/>
+        <s v="강서지점"/>
+        <s v="강북지점"/>
+        <s v="강동지점"/>
+        <s v="판교지점"/>
+        <s v="수원지점"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="제품명" numFmtId="0">
+      <sharedItems count="20">
+        <s v="아쿠아 필터"/>
+        <s v="이동형 정수기 필터"/>
+        <s v="알칼리 이온수기 AT-010"/>
+        <s v="듀얼 냉온정수기"/>
+        <s v="웰빙 미니정수기"/>
+        <s v="알칼리 냉온수기"/>
+        <s v="그린 1세대 가정용 정수기"/>
+        <s v="분유 휴대용 무선포트"/>
+        <s v="커피용 무선포트"/>
+        <s v="키친 코코 멀티포트"/>
+        <s v="휴대용 전기주전자"/>
+        <s v="생활가전 전기국통"/>
+        <s v="전기 이중국통"/>
+        <s v="킹스톤 멀티 티포트"/>
+        <s v="헬리오스 티포트"/>
+        <s v="대용량 가정용 티타늄 포트"/>
+        <s v="스텐 전기포트"/>
+        <s v="크리스탈 냉정수기"/>
+        <s v="알칼리 냉정수기"/>
+        <s v="이동형 미니정수기"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="제조사" numFmtId="0">
+      <sharedItems count="9">
+        <s v="필립스"/>
+        <s v="다이슨"/>
+        <s v="아이닉스"/>
+        <s v="소닉케어"/>
+        <s v="네오네이처"/>
+        <s v="삼성전자"/>
+        <s v="일렉트릭홈"/>
+        <s v="HTM"/>
+        <s v="모토로라"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="단가" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="149520" maxValue="728000"/>
+    </cacheField>
+    <cacheField name="할인가" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="119620" maxValue="691600"/>
+    </cacheField>
+    <cacheField name="수량" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="48"/>
+    </cacheField>
+    <cacheField name="금액" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1049900" maxValue="30019840"/>
+    </cacheField>
+    <cacheField name="무료배송" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="88">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="164700"/>
+    <n v="161410"/>
+    <n v="35"/>
+    <n v="5649350"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="194040"/>
+    <n v="170760"/>
+    <n v="45"/>
+    <n v="7684200"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="270000"/>
+    <n v="267300"/>
+    <n v="33"/>
+    <n v="8820900"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="331800"/>
+    <n v="291980"/>
+    <n v="17"/>
+    <n v="4963660"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="270000"/>
+    <n v="256500"/>
+    <n v="9"/>
+    <n v="2308500"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="149520"/>
+    <n v="119620"/>
+    <n v="47"/>
+    <n v="5622140"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="228240"/>
+    <n v="209980"/>
+    <n v="5"/>
+    <n v="1049900"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="366000"/>
+    <n v="303780"/>
+    <n v="34"/>
+    <n v="10328520"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="391800"/>
+    <n v="321280"/>
+    <n v="30"/>
+    <n v="9638400"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="5"/>
+    <n v="220000"/>
+    <n v="191400"/>
+    <n v="17"/>
+    <n v="3253800"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="277650"/>
+    <n v="258210"/>
+    <n v="33"/>
+    <n v="8520930"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="726600"/>
+    <n v="595810"/>
+    <n v="15"/>
+    <n v="8937150"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="4"/>
+    <n v="418800"/>
+    <n v="414610"/>
+    <n v="29"/>
+    <n v="12023690"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="3"/>
+    <n v="190200"/>
+    <n v="152160"/>
+    <n v="15"/>
+    <n v="2282400"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="6"/>
+    <n v="728000"/>
+    <n v="640640"/>
+    <n v="27"/>
+    <n v="17297280"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="4"/>
+    <n v="169500"/>
+    <n v="164420"/>
+    <n v="42"/>
+    <n v="6905640"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="7"/>
+    <n v="236400"/>
+    <n v="196210"/>
+    <n v="19"/>
+    <n v="3727990"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="164700"/>
+    <n v="153170"/>
+    <n v="38"/>
+    <n v="5820460"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="194040"/>
+    <n v="188220"/>
+    <n v="37"/>
+    <n v="6964140"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="270000"/>
+    <n v="251100"/>
+    <n v="44"/>
+    <n v="11048400"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="331800"/>
+    <n v="301940"/>
+    <n v="19"/>
+    <n v="5736860"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="4"/>
+    <n v="694260"/>
+    <n v="569290"/>
+    <n v="13"/>
+    <n v="7400770"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="3"/>
+    <n v="270000"/>
+    <n v="232200"/>
+    <n v="10"/>
+    <n v="2322000"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="8"/>
+    <n v="164700"/>
+    <n v="163050"/>
+    <n v="24"/>
+    <n v="3913200"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="270000"/>
+    <n v="226800"/>
+    <n v="30"/>
+    <n v="6804000"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="149520"/>
+    <n v="148020"/>
+    <n v="28"/>
+    <n v="4144560"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="228240"/>
+    <n v="219110"/>
+    <n v="17"/>
+    <n v="3724870"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="366000"/>
+    <n v="318420"/>
+    <n v="9"/>
+    <n v="2865780"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="391800"/>
+    <n v="391800"/>
+    <n v="34"/>
+    <n v="13321200"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="5"/>
+    <n v="220000"/>
+    <n v="209000"/>
+    <n v="25"/>
+    <n v="5225000"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="277650"/>
+    <n v="247110"/>
+    <n v="16"/>
+    <n v="3953760"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="726600"/>
+    <n v="675740"/>
+    <n v="5"/>
+    <n v="3378700"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="4"/>
+    <n v="418800"/>
+    <n v="393670"/>
+    <n v="48"/>
+    <n v="18896160"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="3"/>
+    <n v="190200"/>
+    <n v="174980"/>
+    <n v="16"/>
+    <n v="2799680"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="6"/>
+    <n v="728000"/>
+    <n v="618800"/>
+    <n v="28"/>
+    <n v="17326400"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="4"/>
+    <n v="169500"/>
+    <n v="169500"/>
+    <n v="17"/>
+    <n v="2881500"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="7"/>
+    <n v="236400"/>
+    <n v="205670"/>
+    <n v="39"/>
+    <n v="8021130"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="164700"/>
+    <n v="156470"/>
+    <n v="21"/>
+    <n v="3285870"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="194040"/>
+    <n v="164930"/>
+    <n v="41"/>
+    <n v="6762130"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="270000"/>
+    <n v="221400"/>
+    <n v="17"/>
+    <n v="3763800"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="228240"/>
+    <n v="194000"/>
+    <n v="24"/>
+    <n v="4656000"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="366000"/>
+    <n v="307440"/>
+    <n v="45"/>
+    <n v="13834800"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="391800"/>
+    <n v="372210"/>
+    <n v="6"/>
+    <n v="2233260"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="5"/>
+    <n v="220000"/>
+    <n v="195800"/>
+    <n v="18"/>
+    <n v="3524400"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="277650"/>
+    <n v="272100"/>
+    <n v="12"/>
+    <n v="3265200"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="726600"/>
+    <n v="610340"/>
+    <n v="16"/>
+    <n v="9765440"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="4"/>
+    <n v="418800"/>
+    <n v="389480"/>
+    <n v="9"/>
+    <n v="3505320"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="3"/>
+    <n v="190200"/>
+    <n v="173080"/>
+    <n v="42"/>
+    <n v="7269360"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="6"/>
+    <n v="728000"/>
+    <n v="691600"/>
+    <n v="40"/>
+    <n v="27664000"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="4"/>
+    <n v="169500"/>
+    <n v="152550"/>
+    <n v="26"/>
+    <n v="3966300"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="7"/>
+    <n v="236400"/>
+    <n v="200940"/>
+    <n v="19"/>
+    <n v="3817860"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="164700"/>
+    <n v="141640"/>
+    <n v="24"/>
+    <n v="3399360"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="194040"/>
+    <n v="178520"/>
+    <n v="27"/>
+    <n v="4820040"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="331800"/>
+    <n v="285350"/>
+    <n v="25"/>
+    <n v="7133750"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="17"/>
+    <x v="4"/>
+    <n v="694260"/>
+    <n v="569290"/>
+    <n v="14"/>
+    <n v="7970060"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="18"/>
+    <x v="3"/>
+    <n v="270000"/>
+    <n v="240300"/>
+    <n v="17"/>
+    <n v="4085100"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="270000"/>
+    <n v="226800"/>
+    <n v="18"/>
+    <n v="4082400"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="149520"/>
+    <n v="127090"/>
+    <n v="44"/>
+    <n v="5591960"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="366000"/>
+    <n v="314760"/>
+    <n v="37"/>
+    <n v="11646120"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="5"/>
+    <n v="220000"/>
+    <n v="191400"/>
+    <n v="32"/>
+    <n v="6124800"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="726600"/>
+    <n v="639410"/>
+    <n v="43"/>
+    <n v="27494630"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="12"/>
+    <x v="4"/>
+    <n v="418800"/>
+    <n v="406240"/>
+    <n v="24"/>
+    <n v="9749760"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="13"/>
+    <x v="3"/>
+    <n v="190200"/>
+    <n v="188300"/>
+    <n v="30"/>
+    <n v="5649000"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="14"/>
+    <x v="6"/>
+    <n v="728000"/>
+    <n v="604240"/>
+    <n v="29"/>
+    <n v="17522960"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="15"/>
+    <x v="4"/>
+    <n v="169500"/>
+    <n v="135600"/>
+    <n v="22"/>
+    <n v="2983200"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="16"/>
+    <x v="7"/>
+    <n v="236400"/>
+    <n v="226940"/>
+    <n v="10"/>
+    <n v="2269400"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="164700"/>
+    <n v="136700"/>
+    <n v="35"/>
+    <n v="4784500"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="194040"/>
+    <n v="166870"/>
+    <n v="7"/>
+    <n v="1168090"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="270000"/>
+    <n v="245700"/>
+    <n v="13"/>
+    <n v="3194100"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="17"/>
+    <x v="4"/>
+    <n v="694260"/>
+    <n v="638720"/>
+    <n v="47"/>
+    <n v="30019840"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="18"/>
+    <x v="3"/>
+    <n v="270000"/>
+    <n v="240300"/>
+    <n v="20"/>
+    <n v="4806000"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="228240"/>
+    <n v="182590"/>
+    <n v="9"/>
+    <n v="1643310"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="366000"/>
+    <n v="292800"/>
+    <n v="48"/>
+    <n v="14054400"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="391800"/>
+    <n v="348700"/>
+    <n v="12"/>
+    <n v="4184400"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="12"/>
+    <x v="4"/>
+    <n v="418800"/>
+    <n v="410420"/>
+    <n v="32"/>
+    <n v="13133440"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="3"/>
+    <n v="190200"/>
+    <n v="174980"/>
+    <n v="9"/>
+    <n v="1574820"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="6"/>
+    <n v="728000"/>
+    <n v="618800"/>
+    <n v="33"/>
+    <n v="20420400"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="15"/>
+    <x v="4"/>
+    <n v="169500"/>
+    <n v="152550"/>
+    <n v="38"/>
+    <n v="5796900"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="164700"/>
+    <n v="153170"/>
+    <n v="20"/>
+    <n v="3063400"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="194040"/>
+    <n v="164930"/>
+    <n v="40"/>
+    <n v="6597200"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="270000"/>
+    <n v="218700"/>
+    <n v="7"/>
+    <n v="1530900"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="19"/>
+    <x v="8"/>
+    <n v="164700"/>
+    <n v="148230"/>
+    <n v="39"/>
+    <n v="5780970"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="270000"/>
+    <n v="270000"/>
+    <n v="40"/>
+    <n v="10800000"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="149520"/>
+    <n v="131580"/>
+    <n v="14"/>
+    <n v="1842120"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="9"/>
+    <x v="5"/>
+    <n v="220000"/>
+    <n v="182600"/>
+    <n v="24"/>
+    <n v="4382400"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="277650"/>
+    <n v="249890"/>
+    <n v="38"/>
+    <n v="9495820"/>
+    <s v="O"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="4"/>
+    <n v="418800"/>
+    <n v="368540"/>
+    <n v="9"/>
+    <n v="3316860"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="13"/>
+    <x v="3"/>
+    <n v="190200"/>
+    <n v="188300"/>
+    <n v="40"/>
+    <n v="7532000"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B88693D2-928D-41C4-A5B0-2725B4D438B4}" name="피벗 테이블1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="K4:S15" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="21">
+        <item x="6"/>
+        <item x="15"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="16"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="18"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="17"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item sd="0" x="7"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="3" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="3" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="3" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="3" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="합계 : 수량" fld="5" baseField="0" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium10" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -650,41 +1879,59 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I92"/>
+  <dimension ref="B1:S92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.3984375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.296875" customWidth="1"/>
-    <col min="5" max="7" width="11.8984375" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.58203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="7" width="11.9140625" customWidth="1"/>
     <col min="8" max="8" width="12" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.59765625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.58203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="29.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.9140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.9140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.9140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:9" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="2:19" ht="9.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:19" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="2:9" ht="9.6" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="2:19" ht="9.65" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
@@ -706,11 +1953,17 @@
       <c r="H4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="K4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
@@ -733,11 +1986,38 @@
         <f>F5*G5</f>
         <v>5649350</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
@@ -760,11 +2040,31 @@
         <f t="shared" ref="H6:H59" si="0">F6*G6</f>
         <v>7684200</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="6">
+        <v>19</v>
+      </c>
+      <c r="N6" s="6">
+        <v>10</v>
+      </c>
+      <c r="O6" s="6">
+        <v>19</v>
+      </c>
+      <c r="P6" s="6">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
@@ -787,9 +2087,33 @@
         <f t="shared" si="0"/>
         <v>8820900</v>
       </c>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I7" s="8"/>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="6">
+        <v>76</v>
+      </c>
+      <c r="N7" s="6">
+        <v>60</v>
+      </c>
+      <c r="O7" s="6">
+        <v>59</v>
+      </c>
+      <c r="P7" s="6">
+        <v>95</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>9</v>
+      </c>
+      <c r="R7" s="6">
+        <v>126</v>
+      </c>
+      <c r="S7" s="6">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
@@ -812,9 +2136,33 @@
         <f t="shared" si="0"/>
         <v>4963660</v>
       </c>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I8" s="8"/>
+      <c r="K8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="6">
+        <v>112</v>
+      </c>
+      <c r="N8" s="6">
+        <v>64</v>
+      </c>
+      <c r="O8" s="6">
+        <v>98</v>
+      </c>
+      <c r="P8" s="6">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>78</v>
+      </c>
+      <c r="R8" s="6">
+        <v>55</v>
+      </c>
+      <c r="S8" s="6">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
@@ -837,9 +2185,25 @@
         <f t="shared" si="0"/>
         <v>2308500</v>
       </c>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I9" s="8"/>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>39</v>
+      </c>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
@@ -862,11 +2226,33 @@
         <f t="shared" si="0"/>
         <v>5622140</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="6">
+        <v>17</v>
+      </c>
+      <c r="N10" s="6">
+        <v>32</v>
+      </c>
+      <c r="O10" s="6">
+        <v>18</v>
+      </c>
+      <c r="P10" s="6">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>24</v>
+      </c>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
@@ -889,11 +2275,35 @@
         <f t="shared" si="0"/>
         <v>1049900</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="6">
+        <v>24</v>
+      </c>
+      <c r="N11" s="6">
+        <v>65</v>
+      </c>
+      <c r="O11" s="6">
+        <v>42</v>
+      </c>
+      <c r="P11" s="6">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>80</v>
+      </c>
+      <c r="R11" s="6">
+        <v>29</v>
+      </c>
+      <c r="S11" s="6">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
@@ -916,9 +2326,33 @@
         <f t="shared" si="0"/>
         <v>10328520</v>
       </c>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I12" s="8"/>
+      <c r="K12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="6">
+        <v>65</v>
+      </c>
+      <c r="N12" s="6">
+        <v>68</v>
+      </c>
+      <c r="O12" s="6">
+        <v>33</v>
+      </c>
+      <c r="P12" s="6">
+        <v>68</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>7</v>
+      </c>
+      <c r="R12" s="6">
+        <v>13</v>
+      </c>
+      <c r="S12" s="6">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
@@ -941,9 +2375,31 @@
         <f t="shared" si="0"/>
         <v>9638400</v>
       </c>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I13" s="8"/>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="6">
+        <v>27</v>
+      </c>
+      <c r="N13" s="6">
+        <v>29</v>
+      </c>
+      <c r="O13" s="6">
+        <v>40</v>
+      </c>
+      <c r="P13" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6">
+        <v>33</v>
+      </c>
+      <c r="S13" s="6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
@@ -966,11 +2422,35 @@
         <f t="shared" si="0"/>
         <v>3253800</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6">
+        <v>112</v>
+      </c>
+      <c r="N14" s="6">
+        <v>68</v>
+      </c>
+      <c r="O14" s="6">
+        <v>27</v>
+      </c>
+      <c r="P14" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>34</v>
+      </c>
+      <c r="R14" s="6">
+        <v>47</v>
+      </c>
+      <c r="S14" s="6">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
@@ -993,11 +2473,35 @@
         <f t="shared" si="0"/>
         <v>8520930</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="6">
+        <v>452</v>
+      </c>
+      <c r="N15" s="6">
+        <v>396</v>
+      </c>
+      <c r="O15" s="6">
+        <v>336</v>
+      </c>
+      <c r="P15" s="6">
+        <v>497</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>271</v>
+      </c>
+      <c r="R15" s="6">
+        <v>303</v>
+      </c>
+      <c r="S15" s="6">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
@@ -1020,11 +2524,11 @@
         <f t="shared" si="0"/>
         <v>8937150</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I16" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
@@ -1047,9 +2551,9 @@
         <f t="shared" si="0"/>
         <v>12023690</v>
       </c>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1072,9 +2576,9 @@
         <f t="shared" si="0"/>
         <v>2282400</v>
       </c>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
@@ -1097,11 +2601,11 @@
         <f t="shared" si="0"/>
         <v>17297280</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I19" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="3" t="s">
         <v>34</v>
       </c>
@@ -1124,9 +2628,9 @@
         <f t="shared" si="0"/>
         <v>6905640</v>
       </c>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
@@ -1149,11 +2653,11 @@
         <f t="shared" si="0"/>
         <v>3727990</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I21" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
@@ -1176,11 +2680,11 @@
         <f t="shared" si="0"/>
         <v>5820460</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I22" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23" s="3" t="s">
         <v>35</v>
       </c>
@@ -1203,11 +2707,11 @@
         <f t="shared" si="0"/>
         <v>6964140</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I23" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B24" s="3" t="s">
         <v>35</v>
       </c>
@@ -1230,9 +2734,9 @@
         <f t="shared" si="0"/>
         <v>11048400</v>
       </c>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B25" s="3" t="s">
         <v>35</v>
       </c>
@@ -1255,9 +2759,9 @@
         <f t="shared" si="0"/>
         <v>5736860</v>
       </c>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B26" s="3" t="s">
         <v>35</v>
       </c>
@@ -1280,11 +2784,11 @@
         <f t="shared" si="0"/>
         <v>7400770</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I26" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B27" s="3" t="s">
         <v>35</v>
       </c>
@@ -1307,11 +2811,11 @@
         <f t="shared" si="0"/>
         <v>2322000</v>
       </c>
-      <c r="I27" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I27" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B28" s="3" t="s">
         <v>35</v>
       </c>
@@ -1334,9 +2838,9 @@
         <f t="shared" si="0"/>
         <v>3913200</v>
       </c>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
@@ -1359,9 +2863,9 @@
         <f t="shared" si="0"/>
         <v>6804000</v>
       </c>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" s="3" t="s">
         <v>35</v>
       </c>
@@ -1384,11 +2888,11 @@
         <f t="shared" si="0"/>
         <v>4144560</v>
       </c>
-      <c r="I30" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I30" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B31" s="3" t="s">
         <v>35</v>
       </c>
@@ -1411,11 +2915,11 @@
         <f t="shared" si="0"/>
         <v>3724870</v>
       </c>
-      <c r="I31" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I31" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
@@ -1438,9 +2942,9 @@
         <f t="shared" si="0"/>
         <v>2865780</v>
       </c>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B33" s="3" t="s">
         <v>35</v>
       </c>
@@ -1463,9 +2967,9 @@
         <f t="shared" si="0"/>
         <v>13321200</v>
       </c>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B34" s="3" t="s">
         <v>35</v>
       </c>
@@ -1488,11 +2992,11 @@
         <f t="shared" si="0"/>
         <v>5225000</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I34" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
@@ -1515,11 +3019,11 @@
         <f t="shared" si="0"/>
         <v>3953760</v>
       </c>
-      <c r="I35" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I35" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1542,11 +3046,11 @@
         <f t="shared" si="0"/>
         <v>3378700</v>
       </c>
-      <c r="I36" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I36" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -1569,9 +3073,9 @@
         <f t="shared" si="0"/>
         <v>18896160</v>
       </c>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B38" s="3" t="s">
         <v>35</v>
       </c>
@@ -1594,9 +3098,9 @@
         <f t="shared" si="0"/>
         <v>2799680</v>
       </c>
-      <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B39" s="3" t="s">
         <v>35</v>
       </c>
@@ -1619,11 +3123,11 @@
         <f t="shared" si="0"/>
         <v>17326400</v>
       </c>
-      <c r="I39" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I39" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B40" s="3" t="s">
         <v>35</v>
       </c>
@@ -1646,9 +3150,9 @@
         <f t="shared" si="0"/>
         <v>2881500</v>
       </c>
-      <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B41" s="3" t="s">
         <v>35</v>
       </c>
@@ -1671,11 +3175,11 @@
         <f t="shared" si="0"/>
         <v>8021130</v>
       </c>
-      <c r="I41" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I41" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B42" s="3" t="s">
         <v>36</v>
       </c>
@@ -1698,11 +3202,11 @@
         <f t="shared" si="0"/>
         <v>3285870</v>
       </c>
-      <c r="I42" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I42" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B43" s="3" t="s">
         <v>36</v>
       </c>
@@ -1725,11 +3229,11 @@
         <f t="shared" si="0"/>
         <v>6762130</v>
       </c>
-      <c r="I43" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I43" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B44" s="3" t="s">
         <v>36</v>
       </c>
@@ -1752,9 +3256,9 @@
         <f t="shared" si="0"/>
         <v>3763800</v>
       </c>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B45" s="3" t="s">
         <v>36</v>
       </c>
@@ -1777,11 +3281,11 @@
         <f t="shared" si="0"/>
         <v>4656000</v>
       </c>
-      <c r="I45" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I45" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B46" s="3" t="s">
         <v>36</v>
       </c>
@@ -1804,9 +3308,9 @@
         <f t="shared" si="0"/>
         <v>13834800</v>
       </c>
-      <c r="I46" s="9"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B47" s="3" t="s">
         <v>36</v>
       </c>
@@ -1829,9 +3333,9 @@
         <f t="shared" si="0"/>
         <v>2233260</v>
       </c>
-      <c r="I47" s="9"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B48" s="3" t="s">
         <v>36</v>
       </c>
@@ -1854,11 +3358,11 @@
         <f t="shared" si="0"/>
         <v>3524400</v>
       </c>
-      <c r="I48" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I48" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B49" s="3" t="s">
         <v>36</v>
       </c>
@@ -1881,11 +3385,11 @@
         <f t="shared" si="0"/>
         <v>3265200</v>
       </c>
-      <c r="I49" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I49" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B50" s="3" t="s">
         <v>36</v>
       </c>
@@ -1908,11 +3412,11 @@
         <f t="shared" si="0"/>
         <v>9765440</v>
       </c>
-      <c r="I50" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I50" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B51" s="3" t="s">
         <v>36</v>
       </c>
@@ -1935,9 +3439,9 @@
         <f t="shared" si="0"/>
         <v>3505320</v>
       </c>
-      <c r="I51" s="9"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B52" s="3" t="s">
         <v>36</v>
       </c>
@@ -1960,9 +3464,9 @@
         <f t="shared" si="0"/>
         <v>7269360</v>
       </c>
-      <c r="I52" s="9"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B53" s="3" t="s">
         <v>36</v>
       </c>
@@ -1985,11 +3489,11 @@
         <f t="shared" si="0"/>
         <v>27664000</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I53" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B54" s="3" t="s">
         <v>36</v>
       </c>
@@ -2012,9 +3516,9 @@
         <f t="shared" si="0"/>
         <v>3966300</v>
       </c>
-      <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B55" s="3" t="s">
         <v>36</v>
       </c>
@@ -2037,11 +3541,11 @@
         <f t="shared" si="0"/>
         <v>3817860</v>
       </c>
-      <c r="I55" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I55" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B56" s="3" t="s">
         <v>37</v>
       </c>
@@ -2064,11 +3568,11 @@
         <f t="shared" si="0"/>
         <v>3399360</v>
       </c>
-      <c r="I56" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I56" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B57" s="3" t="s">
         <v>37</v>
       </c>
@@ -2091,11 +3595,11 @@
         <f t="shared" si="0"/>
         <v>4820040</v>
       </c>
-      <c r="I57" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I57" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B58" s="3" t="s">
         <v>37</v>
       </c>
@@ -2118,9 +3622,9 @@
         <f t="shared" si="0"/>
         <v>7133750</v>
       </c>
-      <c r="I58" s="9"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B59" s="3" t="s">
         <v>37</v>
       </c>
@@ -2143,11 +3647,11 @@
         <f t="shared" si="0"/>
         <v>7970060</v>
       </c>
-      <c r="I59" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I59" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B60" s="3" t="s">
         <v>37</v>
       </c>
@@ -2170,11 +3674,11 @@
         <f t="shared" ref="H60:H92" si="1">F60*G60</f>
         <v>4085100</v>
       </c>
-      <c r="I60" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I60" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B61" s="3" t="s">
         <v>37</v>
       </c>
@@ -2197,9 +3701,9 @@
         <f t="shared" si="1"/>
         <v>4082400</v>
       </c>
-      <c r="I61" s="9"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B62" s="3" t="s">
         <v>37</v>
       </c>
@@ -2222,11 +3726,11 @@
         <f t="shared" si="1"/>
         <v>5591960</v>
       </c>
-      <c r="I62" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I62" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B63" s="3" t="s">
         <v>37</v>
       </c>
@@ -2249,9 +3753,9 @@
         <f t="shared" si="1"/>
         <v>11646120</v>
       </c>
-      <c r="I63" s="9"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I63" s="8"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B64" s="3" t="s">
         <v>37</v>
       </c>
@@ -2274,11 +3778,11 @@
         <f t="shared" si="1"/>
         <v>6124800</v>
       </c>
-      <c r="I64" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I64" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B65" s="3" t="s">
         <v>37</v>
       </c>
@@ -2301,11 +3805,11 @@
         <f t="shared" si="1"/>
         <v>27494630</v>
       </c>
-      <c r="I65" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I65" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B66" s="3" t="s">
         <v>37</v>
       </c>
@@ -2328,9 +3832,9 @@
         <f t="shared" si="1"/>
         <v>9749760</v>
       </c>
-      <c r="I66" s="9"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I66" s="8"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B67" s="3" t="s">
         <v>37</v>
       </c>
@@ -2353,9 +3857,9 @@
         <f t="shared" si="1"/>
         <v>5649000</v>
       </c>
-      <c r="I67" s="9"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I67" s="8"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B68" s="3" t="s">
         <v>37</v>
       </c>
@@ -2378,11 +3882,11 @@
         <f t="shared" si="1"/>
         <v>17522960</v>
       </c>
-      <c r="I68" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I68" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B69" s="3" t="s">
         <v>37</v>
       </c>
@@ -2405,9 +3909,9 @@
         <f t="shared" si="1"/>
         <v>2983200</v>
       </c>
-      <c r="I69" s="9"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I69" s="8"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B70" s="3" t="s">
         <v>37</v>
       </c>
@@ -2430,11 +3934,11 @@
         <f t="shared" si="1"/>
         <v>2269400</v>
       </c>
-      <c r="I70" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I70" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B71" s="3" t="s">
         <v>38</v>
       </c>
@@ -2457,11 +3961,11 @@
         <f t="shared" si="1"/>
         <v>4784500</v>
       </c>
-      <c r="I71" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I71" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B72" s="3" t="s">
         <v>38</v>
       </c>
@@ -2484,11 +3988,11 @@
         <f t="shared" si="1"/>
         <v>1168090</v>
       </c>
-      <c r="I72" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I72" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B73" s="3" t="s">
         <v>38</v>
       </c>
@@ -2511,9 +4015,9 @@
         <f t="shared" si="1"/>
         <v>3194100</v>
       </c>
-      <c r="I73" s="9"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I73" s="8"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B74" s="3" t="s">
         <v>38</v>
       </c>
@@ -2536,11 +4040,11 @@
         <f t="shared" si="1"/>
         <v>30019840</v>
       </c>
-      <c r="I74" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I74" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B75" s="3" t="s">
         <v>38</v>
       </c>
@@ -2563,11 +4067,11 @@
         <f t="shared" si="1"/>
         <v>4806000</v>
       </c>
-      <c r="I75" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I75" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B76" s="3" t="s">
         <v>38</v>
       </c>
@@ -2590,11 +4094,11 @@
         <f t="shared" si="1"/>
         <v>1643310</v>
       </c>
-      <c r="I76" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I76" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B77" s="3" t="s">
         <v>38</v>
       </c>
@@ -2617,9 +4121,9 @@
         <f t="shared" si="1"/>
         <v>14054400</v>
       </c>
-      <c r="I77" s="9"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I77" s="8"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B78" s="3" t="s">
         <v>38</v>
       </c>
@@ -2642,9 +4146,9 @@
         <f t="shared" si="1"/>
         <v>4184400</v>
       </c>
-      <c r="I78" s="9"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I78" s="8"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B79" s="3" t="s">
         <v>38</v>
       </c>
@@ -2667,9 +4171,9 @@
         <f t="shared" si="1"/>
         <v>13133440</v>
       </c>
-      <c r="I79" s="9"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I79" s="8"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B80" s="3" t="s">
         <v>38</v>
       </c>
@@ -2692,9 +4196,9 @@
         <f t="shared" si="1"/>
         <v>1574820</v>
       </c>
-      <c r="I80" s="9"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I80" s="8"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B81" s="3" t="s">
         <v>38</v>
       </c>
@@ -2717,11 +4221,11 @@
         <f t="shared" si="1"/>
         <v>20420400</v>
       </c>
-      <c r="I81" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I81" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B82" s="3" t="s">
         <v>38</v>
       </c>
@@ -2744,9 +4248,9 @@
         <f t="shared" si="1"/>
         <v>5796900</v>
       </c>
-      <c r="I82" s="9"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I82" s="8"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B83" s="3" t="s">
         <v>39</v>
       </c>
@@ -2769,11 +4273,11 @@
         <f t="shared" si="1"/>
         <v>3063400</v>
       </c>
-      <c r="I83" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I83" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B84" s="3" t="s">
         <v>39</v>
       </c>
@@ -2796,11 +4300,11 @@
         <f t="shared" si="1"/>
         <v>6597200</v>
       </c>
-      <c r="I84" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I84" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B85" s="3" t="s">
         <v>39</v>
       </c>
@@ -2823,9 +4327,9 @@
         <f t="shared" si="1"/>
         <v>1530900</v>
       </c>
-      <c r="I85" s="9"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I85" s="8"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B86" s="3" t="s">
         <v>39</v>
       </c>
@@ -2848,9 +4352,9 @@
         <f t="shared" si="1"/>
         <v>5780970</v>
       </c>
-      <c r="I86" s="9"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I86" s="8"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B87" s="3" t="s">
         <v>39</v>
       </c>
@@ -2873,9 +4377,9 @@
         <f t="shared" si="1"/>
         <v>10800000</v>
       </c>
-      <c r="I87" s="9"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I87" s="8"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B88" s="3" t="s">
         <v>39</v>
       </c>
@@ -2898,11 +4402,11 @@
         <f t="shared" si="1"/>
         <v>1842120</v>
       </c>
-      <c r="I88" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I88" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B89" s="3" t="s">
         <v>39</v>
       </c>
@@ -2925,11 +4429,11 @@
         <f t="shared" si="1"/>
         <v>4382400</v>
       </c>
-      <c r="I89" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I89" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B90" s="3" t="s">
         <v>39</v>
       </c>
@@ -2952,11 +4456,11 @@
         <f t="shared" si="1"/>
         <v>9495820</v>
       </c>
-      <c r="I90" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I90" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B91" s="3" t="s">
         <v>39</v>
       </c>
@@ -2979,9 +4483,9 @@
         <f t="shared" si="1"/>
         <v>3316860</v>
       </c>
-      <c r="I91" s="9"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I91" s="8"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B92" s="3" t="s">
         <v>39</v>
       </c>
@@ -3004,7 +4508,7 @@
         <f t="shared" si="1"/>
         <v>7532000</v>
       </c>
-      <c r="I92" s="9"/>
+      <c r="I92" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3012,6 +4516,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>